--- a/public/Reporte_por_tipo_salida.xlsx
+++ b/public/Reporte_por_tipo_salida.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
   <si>
     <t>DETALLE DE SALIDAS DEL ALMACÉN (Por tipo de salida)</t>
   </si>
@@ -47,6 +47,12 @@
     <t>2023/11/05</t>
   </si>
   <si>
+    <t>2023/11/08</t>
+  </si>
+  <si>
+    <t>Clientes</t>
+  </si>
+  <si>
     <t>TOTAL</t>
   </si>
   <si>
@@ -66,6 +72,12 @@
   </si>
   <si>
     <t>Cocina para elaboración de pizzas</t>
+  </si>
+  <si>
+    <t>2023/11/09</t>
+  </si>
+  <si>
+    <t>Cocina</t>
   </si>
 </sst>
 </file>
@@ -522,10 +534,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="D28" sqref="D28:D28"/>
+      <selection activeCell="D31" sqref="D31:D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -606,86 +618,86 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="5">
+        <v>17</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="7">
-        <v>201.433</v>
+      <c r="C8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="6">
+        <v>43.199</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="5">
+        <v>18</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="6">
+        <v>43.5</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="5">
+      <c r="A10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="7">
+        <v>288.132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="5">
         <v>9</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="6">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="6">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="7">
         <v>40.0</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="7">
-        <v>40.0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="5">
-        <v>1</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="6">
-        <v>46.75</v>
-      </c>
-    </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="5">
-        <v>2</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="6">
-        <v>72.87</v>
-      </c>
+      <c r="A16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>7</v>
@@ -694,12 +706,12 @@
         <v>8</v>
       </c>
       <c r="D17" s="6">
-        <v>99.494</v>
+        <v>46.75</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>7</v>
@@ -708,12 +720,12 @@
         <v>8</v>
       </c>
       <c r="D18" s="6">
-        <v>30.0</v>
+        <v>72.87</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>7</v>
@@ -722,68 +734,68 @@
         <v>8</v>
       </c>
       <c r="D19" s="6">
-        <v>158.417</v>
+        <v>99.494</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="5">
+        <v>4</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>12</v>
-      </c>
       <c r="C20" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="6">
-        <v>174.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="6">
-        <v>17.4</v>
+        <v>158.417</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="5">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="6">
-        <v>27.0</v>
+        <v>174.0</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="5">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D23" s="6">
-        <v>34.286</v>
+        <v>17.4</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="5">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>9</v>
@@ -792,12 +804,12 @@
         <v>8</v>
       </c>
       <c r="D24" s="6">
-        <v>125.156</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="5">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>9</v>
@@ -806,12 +818,12 @@
         <v>8</v>
       </c>
       <c r="D25" s="6">
-        <v>46.75</v>
+        <v>34.286</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="5">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>9</v>
@@ -820,31 +832,73 @@
         <v>8</v>
       </c>
       <c r="D26" s="6">
-        <v>99.494</v>
+        <v>125.156</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="5">
+        <v>13</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="6">
+        <v>46.75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="5">
+        <v>15</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="6">
+        <v>99.494</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="5">
         <v>16</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" s="6">
+      <c r="B29" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="6">
         <v>103.571</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="7">
-        <v>1035.188</v>
+    <row r="30" spans="1:4">
+      <c r="A30" s="5">
+        <v>19</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="6">
+        <v>116.667</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="7">
+        <v>1151.855</v>
       </c>
     </row>
   </sheetData>
@@ -852,11 +906,11 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A31:C31"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
